--- a/Template_test_cases_vereshaka.xlsx
+++ b/Template_test_cases_vereshaka.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekaterina.andronova\Downloads\skillup1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="312" windowWidth="15132" windowHeight="7380" tabRatio="861" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="315" windowWidth="15135" windowHeight="7380" tabRatio="861" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="21" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <r>
       <t>How the tree directory is structured in Quality Center</t>
@@ -204,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -404,6 +409,7 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink 3" xfId="1"/>
     <cellStyle name="Hyperlink 4" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 18" xfId="3"/>
     <cellStyle name="Normal 4 3" xfId="4"/>
     <cellStyle name="Normal 8 3" xfId="5"/>
@@ -411,9 +417,178 @@
     <cellStyle name="Normal 8 5" xfId="7"/>
     <cellStyle name="Normal 8 6" xfId="8"/>
     <cellStyle name="Normal_webofscience checklist" xfId="9"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="51"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="13"/>
@@ -768,7 +943,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -842,7 +1017,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -916,7 +1091,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -966,7 +1141,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1016,9 +1191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1056,9 +1231,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,9 +1265,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,9 +1300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1299,16 +1476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="106.6640625" customWidth="1"/>
+    <col min="1" max="1" width="106.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1438,28 +1615,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="10"/>
-    <col min="3" max="3" width="9.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
+    <col min="1" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="9.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
     <col min="7" max="7" width="62" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="63.5546875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="10"/>
+    <col min="8" max="8" width="14.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="63.5703125" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="66">
+    <row r="1" spans="1:19" s="12" customFormat="1" ht="63.75">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="52.8">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1582,7 +1759,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" s="12" customFormat="1" ht="26.4">
+    <row r="4" spans="1:19" s="12" customFormat="1" ht="25.5">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="23"/>
@@ -1611,16 +1788,32 @@
       <c r="R4" s="9"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" s="12" customFormat="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19"/>
+    <row r="5" spans="1:19" s="12" customFormat="1" ht="51">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J5" s="13"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
@@ -1633,15 +1826,21 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" s="12" customFormat="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -1653,16 +1852,22 @@
       <c r="R6" s="16"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" s="12" customFormat="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+    <row r="7" spans="1:19" s="12" customFormat="1" ht="15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -1801,29 +2006,95 @@
       <c r="S13" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I4 G4:G6 I12:I13 G12:G13">
+  <conditionalFormatting sqref="I4 G4 I12:I13 G12:G13">
+    <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="110" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="111" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 G4 I12:I13 G12:G13">
+    <cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="107" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="108" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 G3:G4">
+    <cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="89" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="90" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 G3:G4">
+    <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="86" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="87" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
+    <cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="83" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="84" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P3">
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="80" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="81" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4 G4:G6 I12:I13 G12:G13">
+    <cfRule type="cellIs" dxfId="49" priority="80" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="81" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="77" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="78" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3 G3:G4">
+    <cfRule type="cellIs" dxfId="47" priority="77" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="78" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="74" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="75" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -1834,7 +2105,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 G3:G4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -1845,7 +2116,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -1856,7 +2127,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -1867,150 +2138,128 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="44" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="45" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G8:I11">
+    <cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="35" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="36" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I11">
+    <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="32" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="33" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 G7">
+    <cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="29" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="30" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7 G7">
+    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="26" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="27" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 G6:G7">
+    <cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="23" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="24" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 G6:G7">
+    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="41" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="38" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="39" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="35" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="36" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="32" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="33" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="29" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="30" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="26" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="27" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="23" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="24" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I11">
-    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I11">
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>

--- a/Template_test_cases_vereshaka.xlsx
+++ b/Template_test_cases_vereshaka.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekaterina.andronova\Downloads\skillup1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="315" windowWidth="15135" windowHeight="7380" tabRatio="861" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -27,12 +22,12 @@
     <definedName name="Citing_Articles">'[3]General Search'!$B$9:$B$14</definedName>
     <definedName name="Results">'[4]General Search'!$B$9:$B$14</definedName>
   </definedNames>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <r>
       <t>How the tree directory is structured in Quality Center</t>
@@ -105,9 +100,6 @@
     </r>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -173,43 +165,208 @@
     <t>Automated (Y/N)</t>
   </si>
   <si>
-    <t>INC_CCR_PV_Premium_179</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>Basic dataset is chosen. Create a Custom Report page is opened.</t>
-  </si>
-  <si>
-    <t>Grant Numbers Navigational counts verification.</t>
-  </si>
-  <si>
-    <t>Activate Grant Numbers limit section</t>
-  </si>
-  <si>
-    <t>Grant Numbers section opens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that  "Items 1 to 500 of ..." Navigation counts are displayed </t>
-  </si>
-  <si>
-    <t>Country Ranking report is created.</t>
-  </si>
-  <si>
-    <t>Type any valid number in "Go to item:" field and click to Go button</t>
-  </si>
-  <si>
-    <t>Navigational counts (X to Y of Z) are updated accordingly</t>
-  </si>
-  <si>
-    <t>INCI-2102</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>notepad opened</t>
+  </si>
+  <si>
+    <t>verify file save</t>
+  </si>
+  <si>
+    <t>enter any few characters</t>
+  </si>
+  <si>
+    <t>press "save" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reopen notepad </t>
+  </si>
+  <si>
+    <t>the input data is displayed</t>
+  </si>
+  <si>
+    <t>Check if the file is saved when it is closed</t>
+  </si>
+  <si>
+    <t>press "close" button</t>
+  </si>
+  <si>
+    <t>verify file save as</t>
+  </si>
+  <si>
+    <t>press "save as" button</t>
+  </si>
+  <si>
+    <t>input data saved</t>
+  </si>
+  <si>
+    <t>"skillup123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Enter the file name and select its type</t>
+  </si>
+  <si>
+    <t>"notepad" , ".txt"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displayed "save as" window </t>
+  </si>
+  <si>
+    <t>notepad closed</t>
+  </si>
+  <si>
+    <t>notepad closed unchanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displayed "save or not" window </t>
+  </si>
+  <si>
+    <t>Check if the file is not saved when it is closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create </t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>select "create" from the drop-down list</t>
+  </si>
+  <si>
+    <t>Click "file" from the menu</t>
+  </si>
+  <si>
+    <t>display drop-down list</t>
+  </si>
+  <si>
+    <t>press ''not save" button</t>
+  </si>
+  <si>
+    <t>press ''save as" button</t>
+  </si>
+  <si>
+    <t>a new blank notepad was displayed</t>
+  </si>
+  <si>
+    <t>check the creation function</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>check file open function</t>
+  </si>
+  <si>
+    <t>check file print function</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>select "open" from the drop-down list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displayed "open" window </t>
+  </si>
+  <si>
+    <t>select file in the Explorer window and press "open" button</t>
+  </si>
+  <si>
+    <t>file is opened</t>
+  </si>
+  <si>
+    <t>select "print" from the drop-down list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displayed "print" window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter the required parameters and press the "print" button </t>
+  </si>
+  <si>
+    <t>printer works</t>
+  </si>
+  <si>
+    <t>Checking the operability of hot keys and their correspondence to functions</t>
+  </si>
+  <si>
+    <t>Click "file" from the menu and view hot keys</t>
+  </si>
+  <si>
+    <t>press CTRL+N</t>
+  </si>
+  <si>
+    <t>press CTRL+O</t>
+  </si>
+  <si>
+    <t>press CTRL+S</t>
+  </si>
+  <si>
+    <t>press CTRL+P</t>
+  </si>
+  <si>
+    <t>Click "edit" from the menu and view hot keys</t>
+  </si>
+  <si>
+    <t>press F5</t>
+  </si>
+  <si>
+    <t>press CTRL+F</t>
+  </si>
+  <si>
+    <t>press CTRL+A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displayed "find" window </t>
+  </si>
+  <si>
+    <t>select all characters in the notepad</t>
+  </si>
+  <si>
+    <t>the real time is displayed</t>
+  </si>
+  <si>
+    <t>check the editing functions (undo, paste, copy)</t>
+  </si>
+  <si>
+    <t>all functions work</t>
+  </si>
+  <si>
+    <t>hotkeys</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>page settings</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>check the text search function</t>
+  </si>
+  <si>
+    <t>check file close function</t>
+  </si>
+  <si>
+    <t>check page settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -277,7 +434,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,6 +457,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -319,7 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -333,10 +579,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -363,38 +605,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -404,12 +614,160 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink 3" xfId="1"/>
     <cellStyle name="Hyperlink 4" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 18" xfId="3"/>
     <cellStyle name="Normal 4 3" xfId="4"/>
     <cellStyle name="Normal 8 3" xfId="5"/>
@@ -417,93 +775,9 @@
     <cellStyle name="Normal 8 5" xfId="7"/>
     <cellStyle name="Normal 8 6" xfId="8"/>
     <cellStyle name="Normal_webofscience checklist" xfId="9"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <color indexed="13"/>
@@ -943,7 +1217,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1017,7 +1291,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1091,7 +1365,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1141,7 +1415,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1191,9 +1465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1231,9 +1505,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1265,10 +1539,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,10 +1573,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1476,7 +1748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1489,120 +1761,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="25"/>
+      <c r="A2" s="15"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="25"/>
+      <c r="A3" s="15"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="25"/>
+      <c r="A4" s="15"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="25"/>
+      <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="25"/>
+      <c r="A6" s="15"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="25"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="25"/>
+      <c r="A8" s="15"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="15"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="15"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="15"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="15"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="15"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="25"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="15"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="25"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="25"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="25"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="25"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="25"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="25"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="25"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="25"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="25"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="25"/>
+      <c r="A38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1615,125 +1887,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:I7"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="9.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="11"/>
-    <col min="7" max="7" width="62" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="63.5703125" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="5.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="63.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="51">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="G2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" s="12" customFormat="1">
-      <c r="A3" s="5"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="48"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -1742,91 +2017,87 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
+        <v>3</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33"/>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A5" s="47">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" s="12" customFormat="1" ht="25.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" s="12" customFormat="1" ht="51">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" s="12" customFormat="1">
-      <c r="A6" s="5"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="24"/>
+    </row>
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="48"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -1835,438 +2106,1345 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" ht="15">
-      <c r="A7" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A7" s="48"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="15">
+      <c r="A8" s="48"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38">
+        <v>4</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43"/>
+    </row>
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="49"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28">
+        <v>5</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="10" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A10" s="47">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="24"/>
+    </row>
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="48"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:19" s="12" customFormat="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" s="12" customFormat="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" s="12" customFormat="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" s="12" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="1:19" s="12" customFormat="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" s="12" customFormat="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="14"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="49"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28">
+        <v>3</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
+    </row>
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A13" s="47">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="24"/>
+    </row>
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="48"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A16" s="48"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="48"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="38">
+        <v>5</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28">
+        <v>6</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+    </row>
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A19" s="47">
+        <v>5</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="24"/>
+    </row>
+    <row r="20" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A20" s="48"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="24"/>
+    </row>
+    <row r="21" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A21" s="48"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18">
+        <v>3</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
+    </row>
+    <row r="22" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="49"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28">
+        <v>3</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+    </row>
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="47">
+        <v>6</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="24"/>
+    </row>
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="48"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18">
+        <v>2</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="24"/>
+    </row>
+    <row r="25" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A25" s="49"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28">
+        <v>3</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+    </row>
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A26" s="47">
+        <v>7</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="24"/>
+    </row>
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A27" s="48"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18">
+        <v>2</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="24"/>
+    </row>
+    <row r="28" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="48"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18">
+        <v>3</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="24"/>
+    </row>
+    <row r="29" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A29" s="49"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28">
+        <v>4</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33"/>
+    </row>
+    <row r="30" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="47">
+        <v>8</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="24"/>
+    </row>
+    <row r="31" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="48"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="18">
+        <v>2</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="24"/>
+    </row>
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A32" s="48"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18">
+        <v>3</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="24"/>
+    </row>
+    <row r="33" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A33" s="48"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="18">
+        <v>4</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A34" s="48"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="18">
+        <v>5</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A35" s="48"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="18">
+        <v>6</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A36" s="48"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="18">
+        <v>7</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A37" s="48"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="18">
+        <v>8</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A38" s="48"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="18">
+        <v>9</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="55"/>
+      <c r="I38" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="59"/>
+    </row>
+    <row r="39" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A39" s="49"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28">
+        <v>10</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="30"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="33"/>
+    </row>
+    <row r="40" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A40" s="47">
+        <v>9</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="24"/>
+    </row>
+    <row r="41" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A41" s="48"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18">
+        <v>2</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="24"/>
+    </row>
+    <row r="42" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A42" s="49"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28">
+        <v>3</v>
+      </c>
+      <c r="G42" s="46"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="30"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="33"/>
+    </row>
+    <row r="43" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A43" s="47">
+        <v>10</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="24"/>
+    </row>
+    <row r="44" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="48"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18">
+        <v>2</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="24"/>
+    </row>
+    <row r="45" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A45" s="49"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28">
+        <v>3</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="30"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="33"/>
+    </row>
+    <row r="46" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A46" s="47">
+        <v>11</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="24"/>
+    </row>
+    <row r="47" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A47" s="48"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="24"/>
+    </row>
+    <row r="48" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A48" s="49"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28">
+        <v>3</v>
+      </c>
+      <c r="G48" s="46"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I4 G4 I12:I13 G12:G13">
-    <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
+  <mergeCells count="12">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="P10:P15 P2:P3 P5:P6 P17 H7:H9 H11:H18 G3:G21 I2:I21 P19:P25 G17:I25">
+    <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="110" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="206" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4 G4 I12:I13 G12:G13">
-    <cfRule type="cellIs" priority="106" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="P26:P29 G26:I29">
+    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 G3:G4">
-    <cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="P30:P39 G30:I39">
+    <cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 G3:G4">
-    <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P3">
-    <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I36">
+    <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="P40:P42 G40:I42">
+    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="P43:P45 G43:I45">
+    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="56" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="57" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="53" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="54" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="50" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="51" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I11">
-    <cfRule type="cellIs" priority="34" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="35" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="36" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I11">
-    <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="33" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7 G7">
-    <cfRule type="cellIs" priority="28" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="29" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7 G7">
-    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="26" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="27" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6 G6:G7">
-    <cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6 G6:G7">
-    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="P46:P48 G46:I48">
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Template_test_cases_vereshaka.xlsx
+++ b/Template_test_cases_vereshaka.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekaterina.andronova\Downloads\skillup1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="315" windowWidth="15135" windowHeight="7380" tabRatio="861" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <r>
       <t>How the tree directory is structured in Quality Center</t>
@@ -362,12 +367,36 @@
   <si>
     <t>check page settings</t>
   </si>
+  <si>
+    <t>Дописать, раз начали :-)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reopen notepad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Go to location where the file was saved. Open previously saved file… Только раздельными шагами!</t>
+    </r>
+  </si>
+  <si>
+    <t>Везде должен быть expected</t>
+  </si>
+  <si>
+    <t>Разделить шаги, чтобы несколько действий не было в одном шаге.
+Как проверить что принтер работает?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +453,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -565,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -609,12 +651,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -692,10 +728,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -717,6 +749,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -729,45 +792,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink 3" xfId="1"/>
     <cellStyle name="Hyperlink 4" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 18" xfId="3"/>
     <cellStyle name="Normal 4 3" xfId="4"/>
     <cellStyle name="Normal 8 3" xfId="5"/>
@@ -775,264 +826,8 @@
     <cellStyle name="Normal 8 5" xfId="7"/>
     <cellStyle name="Normal 8 6" xfId="8"/>
     <cellStyle name="Normal_webofscience checklist" xfId="9"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color indexed="13"/>
@@ -1217,7 +1012,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1291,7 +1086,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1365,7 +1160,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1415,7 +1210,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1465,9 +1260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1505,9 +1300,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1539,9 +1334,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1573,9 +1369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1748,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1761,120 +1558,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15"/>
+      <c r="A2" s="52"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="52"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="52"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="52"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="52"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="52"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="52"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="52"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="15"/>
+      <c r="A10" s="52"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="52"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="52"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="52"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="52"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="15"/>
+      <c r="A15" s="52"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="52"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="52"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15"/>
+      <c r="A18" s="52"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="52"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="15"/>
+      <c r="A20" s="52"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="52"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="15"/>
+      <c r="A22" s="52"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="52"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15"/>
+      <c r="A24" s="52"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="15"/>
+      <c r="A25" s="52"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="15"/>
+      <c r="A26" s="52"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="15"/>
+      <c r="A27" s="52"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="15"/>
+      <c r="A28" s="52"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="15"/>
+      <c r="A29" s="52"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15"/>
+      <c r="A30" s="52"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="15"/>
+      <c r="A31" s="52"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="15"/>
+      <c r="A32" s="52"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15"/>
+      <c r="A33" s="52"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15"/>
+      <c r="A34" s="52"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15"/>
+      <c r="A35" s="52"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="15"/>
+      <c r="A36" s="52"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="15"/>
+      <c r="A37" s="52"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="15"/>
+      <c r="A38" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1887,12 +1684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1906,7 +1703,8 @@
     <col min="7" max="7" width="47.7109375" style="9" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="9" customWidth="1"/>
     <col min="9" max="9" width="34.42578125" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="9"/>
+    <col min="10" max="10" width="31.5703125" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="11" customFormat="1" ht="38.25" customHeight="1">
@@ -1969,7 +1767,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="50">
+      <c r="A2" s="58">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2008,7 +1806,7 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="48"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -2021,7 +1819,9 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="60" t="s">
+        <v>88</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -2033,71 +1833,71 @@
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28">
+      <c r="A4" s="55"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26">
         <v>3</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="34" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="47">
+      <c r="A5" s="53">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="24"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="48"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -2124,7 +1924,7 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="48"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2"/>
       <c r="C7" s="13"/>
       <c r="D7" s="2"/>
@@ -2139,7 +1939,9 @@
         <v>36</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="60" t="s">
+        <v>88</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2151,96 +1953,98 @@
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" ht="15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38">
+      <c r="A8" s="54"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36">
         <v>4</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="40"/>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28">
+      <c r="A9" s="55"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26">
         <v>5</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="47">
+      <c r="A10" s="53">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="24"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="48"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -2267,71 +2071,71 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="49"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28">
+      <c r="A12" s="55"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26">
         <v>3</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="27" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="47">
+      <c r="A13" s="53">
         <v>4</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>1</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="24"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -2358,7 +2162,7 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -2385,7 +2189,7 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13"/>
       <c r="D16" s="2"/>
@@ -2393,14 +2197,16 @@
       <c r="F16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="42" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="60" t="s">
+        <v>88</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -2412,19 +2218,19 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="38">
+      <c r="F17" s="36">
         <v>5</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="27" t="s">
+      <c r="H17" s="37"/>
+      <c r="I17" s="25" t="s">
         <v>38</v>
       </c>
       <c r="J17" s="5"/>
@@ -2438,454 +2244,456 @@
       <c r="R17" s="8"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28">
+    <row r="18" spans="1:19" s="11" customFormat="1" ht="39" thickBot="1">
+      <c r="A18" s="55"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26">
         <v>6</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="34" t="s">
+      <c r="G18" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="33"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="31"/>
     </row>
     <row r="19" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="47">
+      <c r="A19" s="53">
         <v>5</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>1</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18">
+      <c r="A20" s="54"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="17" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="24"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18">
+      <c r="A21" s="54"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16">
         <v>3</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="24"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="22"/>
     </row>
     <row r="22" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="49"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28">
+      <c r="A22" s="55"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26">
         <v>3</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="27" t="s">
+      <c r="H22" s="27"/>
+      <c r="I22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="31"/>
     </row>
     <row r="23" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="47">
+      <c r="A23" s="53">
         <v>6</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>1</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="17" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="24"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18">
+      <c r="A24" s="54"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16">
         <v>2</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="24"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="22"/>
     </row>
     <row r="25" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28">
+      <c r="A25" s="55"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26">
         <v>3</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="27" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="33"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="47">
+      <c r="A26" s="53">
         <v>7</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <v>1</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="24"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="22"/>
     </row>
     <row r="27" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18">
+      <c r="A27" s="54"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16">
         <v>2</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="17" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="24"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18">
+      <c r="A28" s="54"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16">
         <v>3</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="24"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28">
+      <c r="A29" s="55"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26">
         <v>4</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="27" t="s">
+      <c r="H29" s="27"/>
+      <c r="I29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
+      <c r="J29" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="47">
+      <c r="A30" s="53">
         <v>8</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="51" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <v>1</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="17" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="24"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="18">
+      <c r="A31" s="54"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="16">
         <v>2</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="17" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="24"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18">
+      <c r="A32" s="54"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16">
         <v>3</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="24"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="22"/>
     </row>
     <row r="33" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <v>4</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -2907,12 +2715,12 @@
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <v>5</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -2934,12 +2742,12 @@
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>6</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -2961,12 +2769,12 @@
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <v>7</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -2988,12 +2796,12 @@
       <c r="S36" s="6"/>
     </row>
     <row r="37" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <v>8</v>
       </c>
       <c r="G37" s="12" t="s">
@@ -3015,321 +2823,318 @@
       <c r="S37" s="6"/>
     </row>
     <row r="38" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="18">
+      <c r="A38" s="54"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="16">
         <v>9</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="54" t="s">
+      <c r="H38" s="46"/>
+      <c r="I38" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="J38" s="56"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="59"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="50"/>
     </row>
     <row r="39" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="49"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28">
+      <c r="A39" s="55"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26">
         <v>10</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="29"/>
-      <c r="I39" s="27" t="s">
+      <c r="H39" s="27"/>
+      <c r="I39" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="33"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="47">
+      <c r="A40" s="53">
         <v>9</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="16">
         <v>1</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="17" t="s">
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="24"/>
+      <c r="J40" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="22"/>
     </row>
     <row r="41" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18">
+      <c r="A41" s="54"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16">
         <v>2</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="24"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="22"/>
     </row>
     <row r="42" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A42" s="49"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28">
+      <c r="A42" s="55"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26">
         <v>3</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="27" t="s">
+      <c r="G42" s="43"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="33"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="31"/>
     </row>
     <row r="43" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="47">
+      <c r="A43" s="53">
         <v>10</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="16">
         <v>1</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="17" t="s">
+      <c r="H43" s="18"/>
+      <c r="I43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="24"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="22"/>
     </row>
     <row r="44" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="48"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18">
+      <c r="A44" s="54"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16">
         <v>2</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="20"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="24"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="22"/>
     </row>
     <row r="45" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A45" s="49"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28">
+      <c r="A45" s="55"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26">
         <v>3</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="27" t="s">
+      <c r="H45" s="27"/>
+      <c r="I45" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="33"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="47">
+      <c r="A46" s="53">
         <v>11</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="17" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="16">
         <v>1</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="17" t="s">
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="24"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="22"/>
     </row>
     <row r="47" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18">
+      <c r="A47" s="54"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16">
         <v>2</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="24"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28">
+      <c r="A48" s="55"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26">
         <v>3</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="27" t="s">
+      <c r="G48" s="43"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="33"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
@@ -3337,15 +3142,20 @@
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <conditionalFormatting sqref="P10:P15 P2:P3 P5:P6 P17 H7:H9 H11:H18 G3:G21 I2:I21 P19:P25 G17:I25">
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="206" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="207" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3353,10 +3163,10 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3364,10 +3174,10 @@
     <cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3375,10 +3185,10 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3386,10 +3196,10 @@
     <cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3397,10 +3207,10 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3408,10 +3218,10 @@
     <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3419,10 +3229,10 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3430,10 +3240,10 @@
     <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3441,10 +3251,10 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Template_test_cases_vereshaka.xlsx
+++ b/Template_test_cases_vereshaka.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekaterina.andronova\Downloads\skillup1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="315" windowWidth="15135" windowHeight="7380" tabRatio="861" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <r>
       <t>How the tree directory is structured in Quality Center</t>
@@ -212,9 +207,6 @@
     <t>"skillup123"</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Enter the file name and select its type</t>
   </si>
   <si>
@@ -296,9 +288,6 @@
     <t xml:space="preserve">displayed "print" window </t>
   </si>
   <si>
-    <t xml:space="preserve">enter the required parameters and press the "print" button </t>
-  </si>
-  <si>
     <t>printer works</t>
   </si>
   <si>
@@ -350,53 +339,29 @@
     <t>hotkeys</t>
   </si>
   <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>page settings</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>check the text search function</t>
-  </si>
-  <si>
-    <t>check file close function</t>
-  </si>
-  <si>
-    <t>check page settings</t>
-  </si>
-  <si>
-    <t>Дописать, раз начали :-)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">reopen notepad </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Go to location where the file was saved. Open previously saved file… Только раздельными шагами!</t>
-    </r>
-  </si>
-  <si>
-    <t>Везде должен быть expected</t>
-  </si>
-  <si>
-    <t>Разделить шаги, чтобы несколько действий не было в одном шаге.
-Как проверить что принтер работает?</t>
+    <t xml:space="preserve"> press the "print" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter the required parameters </t>
+  </si>
+  <si>
+    <t>Go to location where the file was saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open previously saved file… </t>
+  </si>
+  <si>
+    <t>file is saved and changed window name</t>
+  </si>
+  <si>
+    <t>file address is  display</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,12 +421,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -607,7 +566,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -774,6 +733,14 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -792,33 +759,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink 3" xfId="1"/>
     <cellStyle name="Hyperlink 4" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 18" xfId="3"/>
     <cellStyle name="Normal 4 3" xfId="4"/>
     <cellStyle name="Normal 8 3" xfId="5"/>
@@ -826,93 +796,9 @@
     <cellStyle name="Normal 8 5" xfId="7"/>
     <cellStyle name="Normal 8 6" xfId="8"/>
     <cellStyle name="Normal_webofscience checklist" xfId="9"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color indexed="13"/>
@@ -1012,7 +898,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1086,7 +972,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1160,7 +1046,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1210,7 +1096,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FSTA"/>
@@ -1260,9 +1146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1300,9 +1186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,10 +1220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1369,10 +1254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1545,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1558,120 +1442,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="52"/>
+      <c r="A2" s="54"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="52"/>
+      <c r="A3" s="54"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="54"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="54"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="54"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="52"/>
+      <c r="A13" s="54"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="52"/>
+      <c r="A16" s="54"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="54"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="52"/>
+      <c r="A23" s="54"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="52"/>
+      <c r="A24" s="54"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="52"/>
+      <c r="A25" s="54"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="52"/>
+      <c r="A26" s="54"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="52"/>
+      <c r="A27" s="54"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="52"/>
+      <c r="A28" s="54"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="52"/>
+      <c r="A29" s="54"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="54"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="54"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="54"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="54"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="52"/>
+      <c r="A34" s="54"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="54"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="52"/>
+      <c r="A36" s="54"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="52"/>
+      <c r="A37" s="54"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="52"/>
+      <c r="A38" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1684,12 +1568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1806,7 +1690,7 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="54"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -1818,10 +1702,10 @@
         <v>25</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="60" t="s">
-        <v>88</v>
-      </c>
+      <c r="I3" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="51"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -1833,7 +1717,7 @@
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="55"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="23"/>
@@ -1860,7 +1744,7 @@
       <c r="S4" s="31"/>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="53">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1897,7 +1781,7 @@
       <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="54"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -1910,7 +1794,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="7"/>
@@ -1924,7 +1808,7 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="2"/>
       <c r="C7" s="13"/>
       <c r="D7" s="2"/>
@@ -1933,15 +1817,15 @@
         <v>3</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="60" t="s">
-        <v>88</v>
-      </c>
+      <c r="I7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="51"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -1953,7 +1837,7 @@
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" ht="15">
-      <c r="A8" s="54"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="33"/>
       <c r="C8" s="34"/>
       <c r="D8" s="33"/>
@@ -1965,10 +1849,10 @@
         <v>25</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="60" t="s">
-        <v>88</v>
-      </c>
+      <c r="I8" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="51"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -1980,7 +1864,7 @@
       <c r="S8" s="40"/>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24"/>
       <c r="D9" s="23"/>
@@ -2007,7 +1891,7 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A10" s="53">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -2018,7 +1902,7 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -2044,7 +1928,7 @@
       <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -2057,7 +1941,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="7"/>
@@ -2071,7 +1955,7 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="23"/>
       <c r="C12" s="25"/>
       <c r="D12" s="23"/>
@@ -2080,11 +1964,11 @@
         <v>3</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="29"/>
@@ -2098,7 +1982,7 @@
       <c r="S12" s="31"/>
     </row>
     <row r="13" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A13" s="53">
+      <c r="A13" s="55">
         <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -2135,7 +2019,7 @@
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -2148,7 +2032,7 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="7"/>
@@ -2162,7 +2046,7 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="54"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -2171,11 +2055,11 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="7"/>
@@ -2189,7 +2073,7 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13"/>
       <c r="D16" s="2"/>
@@ -2198,15 +2082,15 @@
         <v>4</v>
       </c>
       <c r="G16" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="60" t="s">
-        <v>88</v>
-      </c>
+      <c r="I16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="51"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -2217,8 +2101,8 @@
       <c r="R16" s="8"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="54"/>
+    <row r="17" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="56"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -2230,8 +2114,8 @@
         <v>25</v>
       </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="25" t="s">
-        <v>38</v>
+      <c r="I17" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="7"/>
@@ -2244,85 +2128,85 @@
       <c r="R17" s="8"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" ht="39" thickBot="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26">
+    <row r="18" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36">
         <v>6</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="32" t="s">
+      <c r="G18" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="40"/>
+    </row>
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A19" s="57"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26">
+        <v>7</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31"/>
-    </row>
-    <row r="19" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="53">
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+    </row>
+    <row r="20" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A20" s="55">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="16">
         <v>1</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="22"/>
-    </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16">
-        <v>2</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
@@ -2336,20 +2220,20 @@
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="1" t="s">
-        <v>40</v>
+      <c r="I21" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
@@ -2362,83 +2246,83 @@
       <c r="R21" s="21"/>
       <c r="S21" s="22"/>
     </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26">
+    <row r="22" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A22" s="56"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16">
         <v>3</v>
       </c>
-      <c r="G22" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-    </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="53">
+      <c r="G22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="57"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26">
+        <v>3</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="31"/>
+    </row>
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="55">
         <v>6</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="16">
+      <c r="B24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="16">
         <v>1</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-    </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16">
-        <v>2</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
@@ -2451,85 +2335,85 @@
       <c r="R24" s="21"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26">
+    <row r="25" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A25" s="56"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16">
+        <v>2</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A26" s="57"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26">
         <v>3</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
-    </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="53">
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A27" s="55">
         <v>7</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="16">
+      <c r="B27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="16">
         <v>1</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="22"/>
-    </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16">
-        <v>2</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
@@ -2543,20 +2427,20 @@
       <c r="S27" s="22"/>
     </row>
     <row r="28" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="1" t="s">
-        <v>61</v>
+      <c r="I28" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
@@ -2569,112 +2453,110 @@
       <c r="R28" s="21"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26">
+    <row r="29" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="56"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16">
+        <v>3</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="22"/>
+    </row>
+    <row r="30" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="56"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="61">
         <v>4</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="50"/>
+    </row>
+    <row r="31" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A31" s="57"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26">
+        <v>5</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="52"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="31"/>
+    </row>
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A32" s="55">
+        <v>8</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="25" t="s">
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
-    </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="53">
-        <v>8</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="22"/>
-    </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="16">
-        <v>2</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="22"/>
-    </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16">
-        <v>3</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>67</v>
-      </c>
       <c r="H32" s="18"/>
-      <c r="I32" s="1" t="s">
-        <v>57</v>
+      <c r="I32" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
@@ -2688,74 +2570,74 @@
       <c r="S32" s="22"/>
     </row>
     <row r="33" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="16">
-        <v>4</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="22"/>
     </row>
     <row r="34" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="16">
-        <v>5</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="18"/>
       <c r="I34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="22"/>
     </row>
     <row r="35" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1"/>
       <c r="F35" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="7"/>
@@ -2769,20 +2651,20 @@
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="54"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1"/>
       <c r="F36" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="7"/>
@@ -2796,20 +2678,20 @@
       <c r="S36" s="6"/>
     </row>
     <row r="37" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1"/>
       <c r="F37" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="7"/>
@@ -2823,438 +2705,133 @@
       <c r="S37" s="6"/>
     </row>
     <row r="38" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="16">
+        <v>7</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A39" s="56"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="16">
+        <v>8</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A40" s="56"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="16">
         <v>9</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="50"/>
-    </row>
-    <row r="39" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="55"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26">
+      <c r="G40" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="46"/>
+      <c r="I40" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="50"/>
+    </row>
+    <row r="41" spans="1:19" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="57"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="26">
         <v>10</v>
       </c>
-      <c r="G39" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="31"/>
-    </row>
-    <row r="40" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="53">
-        <v>9</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F40" s="16">
-        <v>1</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="22"/>
-    </row>
-    <row r="41" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16">
-        <v>2</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="22"/>
-    </row>
-    <row r="42" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A42" s="55"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26">
-        <v>3</v>
-      </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="31"/>
-    </row>
-    <row r="43" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="53">
-        <v>10</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="16">
-        <v>1</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="22"/>
-    </row>
-    <row r="44" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16">
-        <v>2</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="22"/>
-    </row>
-    <row r="45" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A45" s="55"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26">
-        <v>3</v>
-      </c>
-      <c r="G45" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="31"/>
-    </row>
-    <row r="46" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="53">
-        <v>11</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="16">
-        <v>1</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="19"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="22"/>
-    </row>
-    <row r="47" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A47" s="54"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16">
-        <v>2</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="22"/>
-    </row>
-    <row r="48" spans="1:19" s="11" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A48" s="55"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26">
-        <v>3</v>
-      </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="31"/>
+      <c r="G41" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A46:A48"/>
+  <mergeCells count="9">
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A41"/>
   </mergeCells>
-  <conditionalFormatting sqref="P10:P15 P2:P3 P5:P6 P17 H7:H9 H11:H18 G3:G21 I2:I21 P19:P25 G17:I25">
+  <conditionalFormatting sqref="P10:P15 P2:P3 P5:P6 P17:P18 H7:H9 H11:H19 G3:G22 P20:P41 G17:I41 I2:I22">
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="206" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="206" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="207" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P29 G26:I29">
-    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="26" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="27" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P30:P39 G30:I39">
-    <cfRule type="cellIs" priority="22" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" priority="16" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P40:P42 G40:I42">
-    <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P43:P45 G43:I45">
-    <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P46:P48 G46:I48">
-    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
